--- a/quan-ly-kho/Book1.xlsx
+++ b/quan-ly-kho/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15408" windowHeight="8855"/>
+    <workbookView windowWidth="22583" windowHeight="8855"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách sản phẩm" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Việt Nam</t>
   </si>
   <si>
-    <t>SP10</t>
+    <t>SP11</t>
   </si>
   <si>
     <t>GẠCH LÓT</t>
@@ -750,12 +750,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,7 +1305,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1324,145 +1321,145 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>37</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>250000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>109</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>350000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>80</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>226000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>53</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>340000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>44</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>203000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>72</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>12450000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>43</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1549900</v>
       </c>
     </row>
